--- a/Colecciones/URLConvention Promos (PURL).xlsx
+++ b/Colecciones/URLConvention Promos (PURL).xlsx
@@ -437,7 +437,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>URLConvention</t>
+          <t>URLConvention Promos (PURL)</t>
         </is>
       </c>
     </row>
